--- a/Simulations/Test 2/Analysis.xlsx
+++ b/Simulations/Test 2/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan Diggins\Desktop\EvolutionaryModeling\Simulations\Test 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F0C772-A8BC-4385-A68F-50F5C42FC016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E2E378-43C3-42BB-8107-2642544C1E0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="60">
   <si>
     <t>40</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>95% Int</t>
   </si>
+  <si>
+    <t>Evolution of Null Trait Across 30 Generations</t>
+  </si>
 </sst>
 </file>
 
@@ -264,7 +267,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -396,21 +399,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -470,19 +458,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -571,11 +546,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -594,16 +642,31 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -612,38 +675,50 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="45">
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -928,7 +1003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$B$1</c:f>
+              <c:f>Analysis!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -966,7 +1041,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$B$2:$B$32</c:f>
+              <c:f>Analysis!$B$3:$B$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1078,7 +1153,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$C$1</c:f>
+              <c:f>Analysis!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1116,7 +1191,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$C$2:$C$32</c:f>
+              <c:f>Analysis!$C$3:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1228,7 +1303,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$D$1</c:f>
+              <c:f>Analysis!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1266,7 +1341,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$D$2:$D$32</c:f>
+              <c:f>Analysis!$D$3:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1378,7 +1453,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$E$1</c:f>
+              <c:f>Analysis!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1404,7 +1479,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$E$2:$E$32</c:f>
+              <c:f>Analysis!$E$3:$E$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1516,7 +1591,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$F$1</c:f>
+              <c:f>Analysis!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1554,7 +1629,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$F$2:$F$32</c:f>
+              <c:f>Analysis!$F$3:$F$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -1666,7 +1741,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$G$1</c:f>
+              <c:f>Analysis!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1705,7 +1780,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Analysis!$K$2:$K$32</c:f>
+                <c:f>Analysis!$K$3:$K$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="31"/>
@@ -1807,7 +1882,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Analysis!$K$2:$K$32</c:f>
+                <c:f>Analysis!$K$3:$K$33</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="31"/>
@@ -1923,7 +1998,7 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$G$2:$G$32</c:f>
+              <c:f>Analysis!$G$3:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="31"/>
@@ -2035,7 +2110,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Analysis!$H$1</c:f>
+              <c:f>Analysis!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2061,7 +2136,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Analysis!$H$2:$H$32</c:f>
+              <c:f>Analysis!$H$3:$H$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="31"/>
@@ -3070,13 +3145,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>82378</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>173407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>176154</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>18535</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3158,51 +3233,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0FE2F4E-B0D5-4046-A4E4-63E23AF4D2DC}" name="data" displayName="data" ref="A2:AQ33" tableType="queryTable" totalsRowShown="0" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0FE2F4E-B0D5-4046-A4E4-63E23AF4D2DC}" name="data" displayName="data" ref="A2:AQ33" tableType="queryTable" totalsRowShown="0" dataDxfId="44" headerRowBorderDxfId="0">
   <tableColumns count="43">
-    <tableColumn id="1" xr3:uid="{C58BED05-9E3C-44EB-B885-FE54C3C25C41}" uniqueName="1" name="N" queryTableFieldId="1" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{F46C8E79-CF72-4CA8-A0D7-F51F2F68E156}" uniqueName="2" name="1.00" queryTableFieldId="2" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{7207F526-4328-42EC-96B7-CFF0C23F7F6B}" uniqueName="3" name="2.00" queryTableFieldId="3" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{022C7B42-1687-4E5B-AACF-E07EE1377B68}" uniqueName="4" name="3.00" queryTableFieldId="4" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{4CA3EA40-CAA2-44E9-828D-A8C8C8166BEC}" uniqueName="5" name="4.00" queryTableFieldId="5" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{3F094BB2-6573-4376-B03B-A2BBC6D3DA40}" uniqueName="6" name="5.00" queryTableFieldId="6" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{97B21FED-C9D0-4D39-96E9-14A965B9A006}" uniqueName="7" name="6.00" queryTableFieldId="7" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{31D8FFC9-3540-4379-924B-C4CF97B821E8}" uniqueName="8" name="7.00" queryTableFieldId="8" dataDxfId="35"/>
-    <tableColumn id="9" xr3:uid="{38964CBA-76A9-4519-B210-07F49091630D}" uniqueName="9" name="8.00" queryTableFieldId="9" dataDxfId="34"/>
-    <tableColumn id="10" xr3:uid="{09037397-9551-4FBC-AF74-2ACC6097313D}" uniqueName="10" name="9.00" queryTableFieldId="10" dataDxfId="33"/>
-    <tableColumn id="11" xr3:uid="{243E4F52-7F3E-46C4-8D5D-45F76B38EAA4}" uniqueName="11" name="10.00" queryTableFieldId="11" dataDxfId="32"/>
-    <tableColumn id="12" xr3:uid="{6F9CF1A0-8409-4D7A-ADE0-B15841BC2136}" uniqueName="12" name="11.00" queryTableFieldId="12" dataDxfId="31"/>
-    <tableColumn id="13" xr3:uid="{B8793393-0F7A-4315-A4DE-E210D1DC48E6}" uniqueName="13" name="12.00" queryTableFieldId="13" dataDxfId="30"/>
-    <tableColumn id="14" xr3:uid="{5BBC80D0-67DC-485F-9ACF-23EB6346FE9D}" uniqueName="14" name="13.00" queryTableFieldId="14" dataDxfId="29"/>
-    <tableColumn id="15" xr3:uid="{C4E0256E-77EA-4339-9795-ADFC9413F0C8}" uniqueName="15" name="14.00" queryTableFieldId="15" dataDxfId="28"/>
-    <tableColumn id="16" xr3:uid="{7E8827DA-89DF-4F10-B2C9-D6762534AE39}" uniqueName="16" name="15.00" queryTableFieldId="16" dataDxfId="27"/>
-    <tableColumn id="17" xr3:uid="{9FB914D7-65FC-4BD5-A918-1FB210E97A09}" uniqueName="17" name="16.00" queryTableFieldId="17" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{3425F1E9-B52D-4665-B912-3BC4A95FB88C}" uniqueName="18" name="17.00" queryTableFieldId="18" dataDxfId="25"/>
-    <tableColumn id="19" xr3:uid="{33C7CBF2-ABFE-4F2B-8547-4ABBC3B07F2E}" uniqueName="19" name="18.00" queryTableFieldId="19" dataDxfId="24"/>
-    <tableColumn id="20" xr3:uid="{139E3D58-4E3D-439B-A557-52B8B1C65AA8}" uniqueName="20" name="19.00" queryTableFieldId="20" dataDxfId="23"/>
-    <tableColumn id="21" xr3:uid="{32569B4C-E87E-456B-8376-C3340C903B6A}" uniqueName="21" name="20.00" queryTableFieldId="21" dataDxfId="22"/>
-    <tableColumn id="22" xr3:uid="{F924A53B-11B7-4DC3-B45B-EE9141B105D7}" uniqueName="22" name="21.00" queryTableFieldId="22" dataDxfId="21"/>
-    <tableColumn id="23" xr3:uid="{CE3F17BD-2FB8-4556-AEA7-D516E0C1E714}" uniqueName="23" name="22.00" queryTableFieldId="23" dataDxfId="20"/>
-    <tableColumn id="24" xr3:uid="{97984B59-F7B0-4DA3-8653-1F7CE1B181B1}" uniqueName="24" name="23.00" queryTableFieldId="24" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{24D612BB-9398-448C-956C-2C145384C0C4}" uniqueName="25" name="24.00" queryTableFieldId="25" dataDxfId="18"/>
-    <tableColumn id="26" xr3:uid="{3561FB93-8BD5-4B8E-8E20-6AEE43992D00}" uniqueName="26" name="25.00" queryTableFieldId="26" dataDxfId="17"/>
-    <tableColumn id="27" xr3:uid="{D1F209F2-1AF9-443F-811E-B9E444076AC6}" uniqueName="27" name="26.00" queryTableFieldId="27" dataDxfId="16"/>
-    <tableColumn id="28" xr3:uid="{9BDDB12F-B763-4E64-AFE4-4852A03B5169}" uniqueName="28" name="27.00" queryTableFieldId="28" dataDxfId="15"/>
-    <tableColumn id="29" xr3:uid="{610E15F6-219C-4D69-8B29-DA4A2D1A9EF9}" uniqueName="29" name="28.00" queryTableFieldId="29" dataDxfId="14"/>
-    <tableColumn id="30" xr3:uid="{62377A4C-DA89-4224-83B8-90AC5A32F675}" uniqueName="30" name="29.00" queryTableFieldId="30" dataDxfId="13"/>
-    <tableColumn id="31" xr3:uid="{5A770323-D60A-4FDA-82DD-AD799E2A23D7}" uniqueName="31" name="30.00" queryTableFieldId="31" dataDxfId="12"/>
-    <tableColumn id="32" xr3:uid="{881A6FDE-AA30-4A63-BD49-97944AC1D998}" uniqueName="32" name="31.00" queryTableFieldId="32" dataDxfId="11"/>
-    <tableColumn id="33" xr3:uid="{FE9932BF-E84C-4443-A971-B9BA1F825A9C}" uniqueName="33" name="32.00" queryTableFieldId="33" dataDxfId="10"/>
-    <tableColumn id="34" xr3:uid="{6431205E-A8FB-4118-B748-863968663185}" uniqueName="34" name="33.00" queryTableFieldId="34" dataDxfId="9"/>
-    <tableColumn id="35" xr3:uid="{37B98D8F-FFFF-477F-AED7-F35CD5DB0D04}" uniqueName="35" name="34.00" queryTableFieldId="35" dataDxfId="8"/>
-    <tableColumn id="36" xr3:uid="{73776836-9606-4EC4-918A-4C68F65882AB}" uniqueName="36" name="35.00" queryTableFieldId="36" dataDxfId="7"/>
-    <tableColumn id="37" xr3:uid="{E520993B-D3E5-4A88-92D7-6A56A1A2C0EF}" uniqueName="37" name="36.00" queryTableFieldId="37" dataDxfId="6"/>
-    <tableColumn id="38" xr3:uid="{3011D41A-34CC-47A1-87D9-5CFC7A5FBBE8}" uniqueName="38" name="37.00" queryTableFieldId="38" dataDxfId="5"/>
-    <tableColumn id="39" xr3:uid="{F0119952-33CC-4FD5-A572-A14CC0A4FF6C}" uniqueName="39" name="38.00" queryTableFieldId="39" dataDxfId="4"/>
-    <tableColumn id="40" xr3:uid="{D1C06BFD-4635-4730-9F8B-38575C26C807}" uniqueName="40" name="39.00" queryTableFieldId="40" dataDxfId="3"/>
-    <tableColumn id="41" xr3:uid="{50EEA378-3B40-45F2-B0D0-79A38B0E7934}" uniqueName="41" name="40" queryTableFieldId="41" dataDxfId="2"/>
-    <tableColumn id="42" xr3:uid="{9752337B-D964-493C-B61F-6A983433E976}" uniqueName="42" name="41" queryTableFieldId="42" dataDxfId="1"/>
-    <tableColumn id="43" xr3:uid="{19ED8C2D-F92D-4BD6-9CFC-62763C32962C}" uniqueName="43" name="Mean" queryTableFieldId="43" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C58BED05-9E3C-44EB-B885-FE54C3C25C41}" uniqueName="1" name="N" queryTableFieldId="1" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{F46C8E79-CF72-4CA8-A0D7-F51F2F68E156}" uniqueName="2" name="1.00" queryTableFieldId="2" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{7207F526-4328-42EC-96B7-CFF0C23F7F6B}" uniqueName="3" name="2.00" queryTableFieldId="3" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{022C7B42-1687-4E5B-AACF-E07EE1377B68}" uniqueName="4" name="3.00" queryTableFieldId="4" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{4CA3EA40-CAA2-44E9-828D-A8C8C8166BEC}" uniqueName="5" name="4.00" queryTableFieldId="5" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{3F094BB2-6573-4376-B03B-A2BBC6D3DA40}" uniqueName="6" name="5.00" queryTableFieldId="6" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{97B21FED-C9D0-4D39-96E9-14A965B9A006}" uniqueName="7" name="6.00" queryTableFieldId="7" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{31D8FFC9-3540-4379-924B-C4CF97B821E8}" uniqueName="8" name="7.00" queryTableFieldId="8" dataDxfId="36"/>
+    <tableColumn id="9" xr3:uid="{38964CBA-76A9-4519-B210-07F49091630D}" uniqueName="9" name="8.00" queryTableFieldId="9" dataDxfId="35"/>
+    <tableColumn id="10" xr3:uid="{09037397-9551-4FBC-AF74-2ACC6097313D}" uniqueName="10" name="9.00" queryTableFieldId="10" dataDxfId="34"/>
+    <tableColumn id="11" xr3:uid="{243E4F52-7F3E-46C4-8D5D-45F76B38EAA4}" uniqueName="11" name="10.00" queryTableFieldId="11" dataDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{6F9CF1A0-8409-4D7A-ADE0-B15841BC2136}" uniqueName="12" name="11.00" queryTableFieldId="12" dataDxfId="32"/>
+    <tableColumn id="13" xr3:uid="{B8793393-0F7A-4315-A4DE-E210D1DC48E6}" uniqueName="13" name="12.00" queryTableFieldId="13" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{5BBC80D0-67DC-485F-9ACF-23EB6346FE9D}" uniqueName="14" name="13.00" queryTableFieldId="14" dataDxfId="30"/>
+    <tableColumn id="15" xr3:uid="{C4E0256E-77EA-4339-9795-ADFC9413F0C8}" uniqueName="15" name="14.00" queryTableFieldId="15" dataDxfId="29"/>
+    <tableColumn id="16" xr3:uid="{7E8827DA-89DF-4F10-B2C9-D6762534AE39}" uniqueName="16" name="15.00" queryTableFieldId="16" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{9FB914D7-65FC-4BD5-A918-1FB210E97A09}" uniqueName="17" name="16.00" queryTableFieldId="17" dataDxfId="27"/>
+    <tableColumn id="18" xr3:uid="{3425F1E9-B52D-4665-B912-3BC4A95FB88C}" uniqueName="18" name="17.00" queryTableFieldId="18" dataDxfId="26"/>
+    <tableColumn id="19" xr3:uid="{33C7CBF2-ABFE-4F2B-8547-4ABBC3B07F2E}" uniqueName="19" name="18.00" queryTableFieldId="19" dataDxfId="25"/>
+    <tableColumn id="20" xr3:uid="{139E3D58-4E3D-439B-A557-52B8B1C65AA8}" uniqueName="20" name="19.00" queryTableFieldId="20" dataDxfId="24"/>
+    <tableColumn id="21" xr3:uid="{32569B4C-E87E-456B-8376-C3340C903B6A}" uniqueName="21" name="20.00" queryTableFieldId="21" dataDxfId="23"/>
+    <tableColumn id="22" xr3:uid="{F924A53B-11B7-4DC3-B45B-EE9141B105D7}" uniqueName="22" name="21.00" queryTableFieldId="22" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{CE3F17BD-2FB8-4556-AEA7-D516E0C1E714}" uniqueName="23" name="22.00" queryTableFieldId="23" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{97984B59-F7B0-4DA3-8653-1F7CE1B181B1}" uniqueName="24" name="23.00" queryTableFieldId="24" dataDxfId="20"/>
+    <tableColumn id="25" xr3:uid="{24D612BB-9398-448C-956C-2C145384C0C4}" uniqueName="25" name="24.00" queryTableFieldId="25" dataDxfId="19"/>
+    <tableColumn id="26" xr3:uid="{3561FB93-8BD5-4B8E-8E20-6AEE43992D00}" uniqueName="26" name="25.00" queryTableFieldId="26" dataDxfId="18"/>
+    <tableColumn id="27" xr3:uid="{D1F209F2-1AF9-443F-811E-B9E444076AC6}" uniqueName="27" name="26.00" queryTableFieldId="27" dataDxfId="17"/>
+    <tableColumn id="28" xr3:uid="{9BDDB12F-B763-4E64-AFE4-4852A03B5169}" uniqueName="28" name="27.00" queryTableFieldId="28" dataDxfId="16"/>
+    <tableColumn id="29" xr3:uid="{610E15F6-219C-4D69-8B29-DA4A2D1A9EF9}" uniqueName="29" name="28.00" queryTableFieldId="29" dataDxfId="15"/>
+    <tableColumn id="30" xr3:uid="{62377A4C-DA89-4224-83B8-90AC5A32F675}" uniqueName="30" name="29.00" queryTableFieldId="30" dataDxfId="14"/>
+    <tableColumn id="31" xr3:uid="{5A770323-D60A-4FDA-82DD-AD799E2A23D7}" uniqueName="31" name="30.00" queryTableFieldId="31" dataDxfId="13"/>
+    <tableColumn id="32" xr3:uid="{881A6FDE-AA30-4A63-BD49-97944AC1D998}" uniqueName="32" name="31.00" queryTableFieldId="32" dataDxfId="12"/>
+    <tableColumn id="33" xr3:uid="{FE9932BF-E84C-4443-A971-B9BA1F825A9C}" uniqueName="33" name="32.00" queryTableFieldId="33" dataDxfId="11"/>
+    <tableColumn id="34" xr3:uid="{6431205E-A8FB-4118-B748-863968663185}" uniqueName="34" name="33.00" queryTableFieldId="34" dataDxfId="10"/>
+    <tableColumn id="35" xr3:uid="{37B98D8F-FFFF-477F-AED7-F35CD5DB0D04}" uniqueName="35" name="34.00" queryTableFieldId="35" dataDxfId="9"/>
+    <tableColumn id="36" xr3:uid="{73776836-9606-4EC4-918A-4C68F65882AB}" uniqueName="36" name="35.00" queryTableFieldId="36" dataDxfId="8"/>
+    <tableColumn id="37" xr3:uid="{E520993B-D3E5-4A88-92D7-6A56A1A2C0EF}" uniqueName="37" name="36.00" queryTableFieldId="37" dataDxfId="7"/>
+    <tableColumn id="38" xr3:uid="{3011D41A-34CC-47A1-87D9-5CFC7A5FBBE8}" uniqueName="38" name="37.00" queryTableFieldId="38" dataDxfId="6"/>
+    <tableColumn id="39" xr3:uid="{F0119952-33CC-4FD5-A572-A14CC0A4FF6C}" uniqueName="39" name="38.00" queryTableFieldId="39" dataDxfId="5"/>
+    <tableColumn id="40" xr3:uid="{D1C06BFD-4635-4730-9F8B-38575C26C807}" uniqueName="40" name="39.00" queryTableFieldId="40" dataDxfId="4"/>
+    <tableColumn id="41" xr3:uid="{50EEA378-3B40-45F2-B0D0-79A38B0E7934}" uniqueName="41" name="40" queryTableFieldId="41" dataDxfId="3"/>
+    <tableColumn id="42" xr3:uid="{9752337B-D964-493C-B61F-6A983433E976}" uniqueName="42" name="41" queryTableFieldId="42" dataDxfId="2"/>
+    <tableColumn id="43" xr3:uid="{19ED8C2D-F92D-4BD6-9CFC-62763C32962C}" uniqueName="43" name="Mean" queryTableFieldId="43" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3474,7 +3549,7 @@
   <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView zoomScale="83" workbookViewId="0">
-      <selection sqref="A1:AR1"/>
+      <selection activeCell="AR6" sqref="AR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3487,181 +3562,181 @@
     <col min="44" max="44" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="27"/>
-      <c r="AE1" s="27"/>
-      <c r="AF1" s="27"/>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="48"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="34"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="35"/>
     </row>
     <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AI2" s="25" t="s">
+      <c r="AI2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="AJ2" s="25" t="s">
+      <c r="AJ2" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" s="25" t="s">
+      <c r="AK2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="AL2" s="25" t="s">
+      <c r="AL2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AM2" s="25" t="s">
+      <c r="AM2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AN2" s="25" t="s">
+      <c r="AN2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AO2" s="26" t="s">
+      <c r="AO2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="AP2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ2" s="24" t="s">
+      <c r="AP2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="52" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7460,7 +7535,7 @@
   <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AP33"/>
+      <selection activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7472,174 +7547,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="38"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
     </row>
     <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="B2" s="19">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19">
         <v>2</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <v>3</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="19">
         <v>4</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <v>5</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>6</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="19">
         <v>7</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="19">
         <v>8</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="19">
         <v>9</v>
       </c>
-      <c r="K2" s="20">
+      <c r="K2" s="19">
         <v>10</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>11</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <v>12</v>
       </c>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>13</v>
       </c>
-      <c r="O2" s="20">
+      <c r="O2" s="19">
         <v>14</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="19">
         <v>15</v>
       </c>
-      <c r="Q2" s="20">
+      <c r="Q2" s="19">
         <v>16</v>
       </c>
-      <c r="R2" s="20">
+      <c r="R2" s="19">
         <v>17</v>
       </c>
-      <c r="S2" s="20">
+      <c r="S2" s="19">
         <v>18</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="19">
         <v>19</v>
       </c>
-      <c r="U2" s="20">
+      <c r="U2" s="19">
         <v>20</v>
       </c>
-      <c r="V2" s="20">
+      <c r="V2" s="19">
         <v>21</v>
       </c>
-      <c r="W2" s="20">
+      <c r="W2" s="19">
         <v>22</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X2" s="19">
         <v>23</v>
       </c>
-      <c r="Y2" s="20">
+      <c r="Y2" s="19">
         <v>24</v>
       </c>
-      <c r="Z2" s="20">
+      <c r="Z2" s="19">
         <v>25</v>
       </c>
-      <c r="AA2" s="20">
+      <c r="AA2" s="19">
         <v>26</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="19">
         <v>27</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="19">
         <v>28</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="19">
         <v>29</v>
       </c>
-      <c r="AE2" s="20">
+      <c r="AE2" s="19">
         <v>30</v>
       </c>
-      <c r="AF2" s="20">
+      <c r="AF2" s="19">
         <v>31</v>
       </c>
-      <c r="AG2" s="20">
+      <c r="AG2" s="19">
         <v>32</v>
       </c>
-      <c r="AH2" s="20">
+      <c r="AH2" s="19">
         <v>33</v>
       </c>
-      <c r="AI2" s="20">
+      <c r="AI2" s="19">
         <v>34</v>
       </c>
-      <c r="AJ2" s="20">
+      <c r="AJ2" s="19">
         <v>35</v>
       </c>
-      <c r="AK2" s="20">
+      <c r="AK2" s="19">
         <v>36</v>
       </c>
-      <c r="AL2" s="20">
+      <c r="AL2" s="19">
         <v>37</v>
       </c>
-      <c r="AM2" s="20">
+      <c r="AM2" s="19">
         <v>38</v>
       </c>
-      <c r="AN2" s="20">
+      <c r="AN2" s="19">
         <v>39</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AO2" s="20" t="s">
         <v>3</v>
       </c>
     </row>
@@ -11386,180 +11461,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
     </row>
     <row r="2" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="15">
         <v>2</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>3</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>4</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="15">
         <v>5</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>6</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>7</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="15">
         <v>8</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>9</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="15">
         <v>10</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="15">
         <v>11</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <v>12</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="15">
         <v>13</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="15">
         <v>14</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="15">
         <v>15</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="15">
         <v>16</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>17</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="15">
         <v>18</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="15">
         <v>19</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="15">
         <v>20</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="15">
         <v>21</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="15">
         <v>22</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="15">
         <v>23</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="15">
         <v>24</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="15">
         <v>25</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AA2" s="15">
         <v>26</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AB2" s="15">
         <v>27</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AC2" s="15">
         <v>28</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AD2" s="15">
         <v>29</v>
       </c>
-      <c r="AE2" s="16">
+      <c r="AE2" s="15">
         <v>30</v>
       </c>
-      <c r="AF2" s="16">
+      <c r="AF2" s="15">
         <v>31</v>
       </c>
-      <c r="AG2" s="16">
+      <c r="AG2" s="15">
         <v>32</v>
       </c>
-      <c r="AH2" s="16">
+      <c r="AH2" s="15">
         <v>33</v>
       </c>
-      <c r="AI2" s="16">
+      <c r="AI2" s="15">
         <v>34</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="AJ2" s="15">
         <v>35</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>36</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="AL2" s="15">
         <v>37</v>
       </c>
-      <c r="AM2" s="16">
+      <c r="AM2" s="15">
         <v>38</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="15">
         <v>39</v>
       </c>
-      <c r="AO2" s="16">
+      <c r="AO2" s="15">
         <v>40</v>
       </c>
-      <c r="AP2" s="17">
+      <c r="AP2" s="16">
         <v>41</v>
       </c>
-      <c r="AQ2" s="18" t="s">
+      <c r="AQ2" s="17" t="s">
         <v>3</v>
       </c>
     </row>
@@ -15366,7 +15441,7 @@
   <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0">
-      <selection sqref="A1:AP2"/>
+      <selection activeCell="AR11" sqref="AR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15377,177 +15452,177 @@
     <col min="42" max="42" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="31"/>
-      <c r="AI1" s="31"/>
-      <c r="AJ1" s="31"/>
-      <c r="AK1" s="31"/>
-      <c r="AL1" s="31"/>
-      <c r="AM1" s="31"/>
-      <c r="AN1" s="31"/>
-      <c r="AO1" s="31"/>
-      <c r="AP1" s="31"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="57"/>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="57"/>
+      <c r="AI1" s="57"/>
+      <c r="AJ1" s="57"/>
+      <c r="AK1" s="57"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
+      <c r="AP1" s="58"/>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:42" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15">
+      <c r="B2" s="54">
+        <v>1</v>
+      </c>
+      <c r="C2" s="54">
         <v>2</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="54">
         <v>3</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="54">
         <v>4</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="54">
         <v>5</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="54">
         <v>6</v>
       </c>
-      <c r="H2" s="15">
+      <c r="H2" s="54">
         <v>7</v>
       </c>
-      <c r="I2" s="15">
+      <c r="I2" s="54">
         <v>8</v>
       </c>
-      <c r="J2" s="15">
+      <c r="J2" s="54">
         <v>9</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="54">
         <v>10</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="54">
         <v>11</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="54">
         <v>12</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="54">
         <v>13</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="54">
         <v>14</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="54">
         <v>15</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="54">
         <v>16</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="54">
         <v>17</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="54">
         <v>18</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="54">
         <v>19</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="54">
         <v>20</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="54">
         <v>21</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="54">
         <v>22</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="54">
         <v>23</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2" s="54">
         <v>24</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="Z2" s="54">
         <v>25</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="54">
         <v>26</v>
       </c>
-      <c r="AB2" s="15">
+      <c r="AB2" s="54">
         <v>27</v>
       </c>
-      <c r="AC2" s="15">
+      <c r="AC2" s="54">
         <v>28</v>
       </c>
-      <c r="AD2" s="15">
+      <c r="AD2" s="54">
         <v>29</v>
       </c>
-      <c r="AE2" s="15">
+      <c r="AE2" s="54">
         <v>30</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AF2" s="54">
         <v>31</v>
       </c>
-      <c r="AG2" s="15">
+      <c r="AG2" s="54">
         <v>32</v>
       </c>
-      <c r="AH2" s="15">
+      <c r="AH2" s="54">
         <v>33</v>
       </c>
-      <c r="AI2" s="15">
+      <c r="AI2" s="54">
         <v>34</v>
       </c>
-      <c r="AJ2" s="15">
+      <c r="AJ2" s="54">
         <v>35</v>
       </c>
-      <c r="AK2" s="15">
+      <c r="AK2" s="54">
         <v>36</v>
       </c>
-      <c r="AL2" s="15">
+      <c r="AL2" s="54">
         <v>37</v>
       </c>
-      <c r="AM2" s="15">
+      <c r="AM2" s="54">
         <v>38</v>
       </c>
-      <c r="AN2" s="15">
+      <c r="AN2" s="54">
         <v>39</v>
       </c>
-      <c r="AO2" s="15">
+      <c r="AO2" s="54">
         <v>40</v>
       </c>
-      <c r="AP2" s="15" t="s">
+      <c r="AP2" s="55" t="s">
         <v>3</v>
       </c>
     </row>
@@ -19330,8 +19405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C031DBC0-2297-419F-B70C-803573E6A037}">
   <dimension ref="A1:AR33"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" zoomScale="71" workbookViewId="0">
+      <selection activeCell="AU17" sqref="AU17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19342,185 +19417,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
-      <c r="AC1" s="29"/>
-      <c r="AD1" s="29"/>
-      <c r="AE1" s="29"/>
-      <c r="AF1" s="29"/>
-      <c r="AG1" s="29"/>
-      <c r="AH1" s="29"/>
-      <c r="AI1" s="29"/>
-      <c r="AJ1" s="29"/>
-      <c r="AK1" s="29"/>
-      <c r="AL1" s="29"/>
-      <c r="AM1" s="29"/>
-      <c r="AN1" s="29"/>
-      <c r="AO1" s="29"/>
-      <c r="AP1" s="29"/>
-      <c r="AQ1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="38"/>
     </row>
     <row r="2" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32">
-        <v>1</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="B2" s="22">
+        <v>1</v>
+      </c>
+      <c r="C2" s="23">
         <v>2</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="23">
         <v>3</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="23">
         <v>4</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="23">
         <v>5</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="23">
         <v>6</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="23">
         <v>7</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="23">
         <v>8</v>
       </c>
-      <c r="J2" s="33">
+      <c r="J2" s="23">
         <v>9</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="23">
         <v>10</v>
       </c>
-      <c r="L2" s="33">
+      <c r="L2" s="23">
         <v>11</v>
       </c>
-      <c r="M2" s="33">
+      <c r="M2" s="23">
         <v>12</v>
       </c>
-      <c r="N2" s="33">
+      <c r="N2" s="23">
         <v>13</v>
       </c>
-      <c r="O2" s="33">
+      <c r="O2" s="23">
         <v>14</v>
       </c>
-      <c r="P2" s="33">
+      <c r="P2" s="23">
         <v>15</v>
       </c>
-      <c r="Q2" s="33">
+      <c r="Q2" s="23">
         <v>16</v>
       </c>
-      <c r="R2" s="33">
+      <c r="R2" s="23">
         <v>17</v>
       </c>
-      <c r="S2" s="33">
+      <c r="S2" s="23">
         <v>18</v>
       </c>
-      <c r="T2" s="33">
+      <c r="T2" s="23">
         <v>19</v>
       </c>
-      <c r="U2" s="33">
+      <c r="U2" s="23">
         <v>20</v>
       </c>
-      <c r="V2" s="33">
+      <c r="V2" s="23">
         <v>21</v>
       </c>
-      <c r="W2" s="33">
+      <c r="W2" s="23">
         <v>22</v>
       </c>
-      <c r="X2" s="33">
+      <c r="X2" s="23">
         <v>23</v>
       </c>
-      <c r="Y2" s="33">
+      <c r="Y2" s="23">
         <v>24</v>
       </c>
-      <c r="Z2" s="33">
+      <c r="Z2" s="23">
         <v>25</v>
       </c>
-      <c r="AA2" s="33">
+      <c r="AA2" s="23">
         <v>26</v>
       </c>
-      <c r="AB2" s="33">
+      <c r="AB2" s="23">
         <v>27</v>
       </c>
-      <c r="AC2" s="33">
+      <c r="AC2" s="23">
         <v>28</v>
       </c>
-      <c r="AD2" s="33">
+      <c r="AD2" s="23">
         <v>29</v>
       </c>
-      <c r="AE2" s="33">
+      <c r="AE2" s="23">
         <v>30</v>
       </c>
-      <c r="AF2" s="33">
+      <c r="AF2" s="23">
         <v>31</v>
       </c>
-      <c r="AG2" s="33">
+      <c r="AG2" s="23">
         <v>32</v>
       </c>
-      <c r="AH2" s="33">
+      <c r="AH2" s="23">
         <v>33</v>
       </c>
-      <c r="AI2" s="33">
+      <c r="AI2" s="23">
         <v>34</v>
       </c>
-      <c r="AJ2" s="33">
+      <c r="AJ2" s="23">
         <v>35</v>
       </c>
-      <c r="AK2" s="33">
+      <c r="AK2" s="23">
         <v>36</v>
       </c>
-      <c r="AL2" s="33">
+      <c r="AL2" s="23">
         <v>37</v>
       </c>
-      <c r="AM2" s="33">
+      <c r="AM2" s="23">
         <v>38</v>
       </c>
-      <c r="AN2" s="33">
+      <c r="AN2" s="23">
         <v>39</v>
       </c>
-      <c r="AO2" s="33">
+      <c r="AO2" s="23">
         <v>40</v>
       </c>
-      <c r="AP2" s="34">
+      <c r="AP2" s="24">
         <v>41</v>
       </c>
-      <c r="AQ2" s="35" t="s">
+      <c r="AQ2" s="25" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A3" s="36">
+      <c r="A3" s="26">
         <v>35</v>
       </c>
       <c r="B3" s="4">
@@ -19646,12 +19721,12 @@
       <c r="AP3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AQ3" s="36">
+      <c r="AQ3" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A4" s="36">
+      <c r="A4" s="26">
         <v>36</v>
       </c>
       <c r="B4" s="7">
@@ -19777,12 +19852,12 @@
       <c r="AP4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ4" s="36">
+      <c r="AQ4" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A5" s="36">
+      <c r="A5" s="26">
         <v>33</v>
       </c>
       <c r="B5" s="7">
@@ -19908,12 +19983,12 @@
       <c r="AP5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ5" s="36">
+      <c r="AQ5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A6" s="36">
+      <c r="A6" s="26">
         <v>32</v>
       </c>
       <c r="B6" s="7">
@@ -20039,12 +20114,12 @@
       <c r="AP6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ6" s="36">
+      <c r="AQ6" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A7" s="36">
+      <c r="A7" s="26">
         <v>36</v>
       </c>
       <c r="B7" s="7">
@@ -20170,12 +20245,12 @@
       <c r="AP7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ7" s="36">
+      <c r="AQ7" s="26">
         <v>0.98981394222399999</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A8" s="36">
+      <c r="A8" s="26">
         <v>38</v>
       </c>
       <c r="B8" s="7">
@@ -20301,12 +20376,12 @@
       <c r="AP8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ8" s="36">
+      <c r="AQ8" s="26">
         <v>0.98029966729499995</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A9" s="36">
+      <c r="A9" s="26">
         <v>36</v>
       </c>
       <c r="B9" s="7">
@@ -20432,12 +20507,12 @@
       <c r="AP9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ9" s="36">
+      <c r="AQ9" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A10" s="36">
+      <c r="A10" s="26">
         <v>36</v>
       </c>
       <c r="B10" s="7">
@@ -20563,12 +20638,12 @@
       <c r="AP10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ10" s="36">
+      <c r="AQ10" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A11" s="36">
+      <c r="A11" s="26">
         <v>34</v>
       </c>
       <c r="B11" s="7">
@@ -20694,13 +20769,13 @@
       <c r="AP11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ11" s="36">
+      <c r="AQ11" s="26">
         <v>1</v>
       </c>
       <c r="AR11" s="1"/>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A12" s="36">
+      <c r="A12" s="26">
         <v>33</v>
       </c>
       <c r="B12" s="7">
@@ -20826,12 +20901,12 @@
       <c r="AP12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ12" s="36">
+      <c r="AQ12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A13" s="36">
+      <c r="A13" s="26">
         <v>36</v>
       </c>
       <c r="B13" s="7">
@@ -20957,12 +21032,12 @@
       <c r="AP13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ13" s="36">
+      <c r="AQ13" s="26">
         <v>1.02363795417</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+      <c r="A14" s="26">
         <v>35</v>
       </c>
       <c r="B14" s="7">
@@ -21088,12 +21163,12 @@
       <c r="AP14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ14" s="36">
+      <c r="AQ14" s="26">
         <v>1.0074069186500001</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A15" s="36">
+      <c r="A15" s="26">
         <v>36</v>
       </c>
       <c r="B15" s="7">
@@ -21219,12 +21294,12 @@
       <c r="AP15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ15" s="36">
+      <c r="AQ15" s="26">
         <v>1.0144023418200001</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+      <c r="A16" s="26">
         <v>37</v>
       </c>
       <c r="B16" s="7">
@@ -21350,12 +21425,12 @@
       <c r="AP16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ16" s="36">
+      <c r="AQ16" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A17" s="36">
+      <c r="A17" s="26">
         <v>36</v>
       </c>
       <c r="B17" s="7">
@@ -21481,12 +21556,12 @@
       <c r="AP17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ17" s="36">
+      <c r="AQ17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A18" s="36">
+      <c r="A18" s="26">
         <v>39</v>
       </c>
       <c r="B18" s="7">
@@ -21612,12 +21687,12 @@
       <c r="AP18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ18" s="36">
+      <c r="AQ18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A19" s="36">
+      <c r="A19" s="26">
         <v>39</v>
       </c>
       <c r="B19" s="7">
@@ -21743,12 +21818,12 @@
       <c r="AP19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ19" s="36">
+      <c r="AQ19" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A20" s="36">
+      <c r="A20" s="26">
         <v>37</v>
       </c>
       <c r="B20" s="7">
@@ -21874,12 +21949,12 @@
       <c r="AP20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ20" s="36">
+      <c r="AQ20" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A21" s="36">
+      <c r="A21" s="26">
         <v>34</v>
       </c>
       <c r="B21" s="7">
@@ -22005,12 +22080,12 @@
       <c r="AP21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ21" s="36">
+      <c r="AQ21" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A22" s="36">
+      <c r="A22" s="26">
         <v>36</v>
       </c>
       <c r="B22" s="7">
@@ -22136,12 +22211,12 @@
       <c r="AP22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ22" s="36">
+      <c r="AQ22" s="26">
         <v>0.99691840269800003</v>
       </c>
     </row>
     <row r="23" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A23" s="36">
+      <c r="A23" s="26">
         <v>33</v>
       </c>
       <c r="B23" s="7">
@@ -22267,12 +22342,12 @@
       <c r="AP23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ23" s="36">
+      <c r="AQ23" s="26">
         <v>0.99327651497799996</v>
       </c>
     </row>
     <row r="24" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
+      <c r="A24" s="26">
         <v>33</v>
       </c>
       <c r="B24" s="7">
@@ -22398,12 +22473,12 @@
       <c r="AP24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ24" s="36">
+      <c r="AQ24" s="26">
         <v>0.99844101432400001</v>
       </c>
     </row>
     <row r="25" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A25" s="36">
+      <c r="A25" s="26">
         <v>40</v>
       </c>
       <c r="B25" s="7">
@@ -22529,12 +22604,12 @@
       <c r="AP25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ25" s="36">
+      <c r="AQ25" s="26">
         <v>0.99316696167399998</v>
       </c>
     </row>
     <row r="26" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A26" s="36">
+      <c r="A26" s="26">
         <v>36</v>
       </c>
       <c r="B26" s="7">
@@ -22660,12 +22735,12 @@
       <c r="AP26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ26" s="36">
+      <c r="AQ26" s="26">
         <v>1.0033050541999999</v>
       </c>
     </row>
     <row r="27" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A27" s="36">
+      <c r="A27" s="26">
         <v>34</v>
       </c>
       <c r="B27" s="7">
@@ -22791,12 +22866,12 @@
       <c r="AP27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ27" s="36">
+      <c r="AQ27" s="26">
         <v>0.99848686684400001</v>
       </c>
     </row>
     <row r="28" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A28" s="36">
+      <c r="A28" s="26">
         <v>41</v>
       </c>
       <c r="B28" s="7">
@@ -22922,12 +22997,12 @@
       <c r="AP28" s="8">
         <v>1</v>
       </c>
-      <c r="AQ28" s="36">
+      <c r="AQ28" s="26">
         <v>0.98917682898799997</v>
       </c>
     </row>
     <row r="29" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A29" s="36">
+      <c r="A29" s="26">
         <v>40</v>
       </c>
       <c r="B29" s="7">
@@ -23053,12 +23128,12 @@
       <c r="AP29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ29" s="36">
+      <c r="AQ29" s="26">
         <v>0.98890624971300001</v>
       </c>
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A30" s="36">
+      <c r="A30" s="26">
         <v>37</v>
       </c>
       <c r="B30" s="7">
@@ -23184,12 +23259,12 @@
       <c r="AP30" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ30" s="36">
+      <c r="AQ30" s="26">
         <v>0.99100506733500004</v>
       </c>
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
+      <c r="A31" s="26">
         <v>35</v>
       </c>
       <c r="B31" s="7">
@@ -23315,12 +23390,12 @@
       <c r="AP31" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ31" s="36">
+      <c r="AQ31" s="26">
         <v>0.98415178530400005</v>
       </c>
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
+      <c r="A32" s="26">
         <v>32</v>
       </c>
       <c r="B32" s="7">
@@ -23446,12 +23521,12 @@
       <c r="AP32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AQ32" s="36">
+      <c r="AQ32" s="26">
         <v>0.97226562428200003</v>
       </c>
     </row>
     <row r="33" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37">
+      <c r="A33" s="27">
         <v>31</v>
       </c>
       <c r="B33" s="9">
@@ -23577,7 +23652,7 @@
       <c r="AP33" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ33" s="37">
+      <c r="AQ33" s="27">
         <v>0.96779233787600005</v>
       </c>
       <c r="AR33" s="2"/>
@@ -23628,10 +23703,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0D17D8-0563-4C0D-867F-D0F148740041}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="AC23" sqref="AC23"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23643,1376 +23718,1394 @@
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D2" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G2" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I2" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J2" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K2" s="45" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="44">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
-        <f>'Test 1'!$AQ3</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="38">
-        <f>'Test 2'!$AO3</f>
-        <v>1</v>
-      </c>
-      <c r="D2" s="13">
-        <f>'Test 3'!$AQ3</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="13">
-        <f>'Test 4'!$AP3</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <f>'Test 5'!$AQ3</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="13">
-        <f>AVERAGE(B2:F2)</f>
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <f>_xlfn.STDEV.S(B2:G2)</f>
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <f>1.96*(J2)/I2</f>
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
-        <v>1</v>
+      <c r="A3" s="32">
+        <v>0</v>
       </c>
       <c r="B3" s="8">
+        <f>'Test 1'!$AQ3</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="28">
+        <f>'Test 2'!$AO3</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <f>'Test 3'!$AQ3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <f>'Test 4'!$AP3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <f>'Test 5'!$AQ3</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <f>AVERAGE(B3:F3)</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>1</v>
+      </c>
+      <c r="I3" s="13">
+        <v>5</v>
+      </c>
+      <c r="J3" s="26">
+        <f>_xlfn.STDEV.S(B3:G3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="39">
+        <f>1.96*(J3)/I3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8">
         <f>'Test 1'!$AQ4</f>
         <v>0.97957157113100002</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C4" s="28">
         <f>'Test 2'!$AO4</f>
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D4" s="13">
         <f>'Test 3'!$AQ4</f>
         <v>1</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E4" s="13">
         <f>'Test 4'!$AP4</f>
         <v>1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F4" s="7">
         <f>'Test 5'!$AQ4</f>
         <v>1</v>
       </c>
-      <c r="G3" s="13">
-        <f t="shared" ref="G3:G32" si="0">AVERAGE(B3:F3)</f>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G33" si="0">AVERAGE(B4:F4)</f>
         <v>0.99591431422620003</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
+      <c r="H4" s="26">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
         <v>5</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J32" si="1">_xlfn.STDEV.S(B3:G3)</f>
+      <c r="J4" s="26">
+        <f t="shared" ref="J4:J33" si="1">_xlfn.STDEV.S(B4:G4)</f>
         <v>8.1713715475999933E-3</v>
       </c>
-      <c r="K3" s="2">
-        <f t="shared" ref="K3:K32" si="2">1.96*(J3)/I3</f>
+      <c r="K4" s="39">
+        <f t="shared" ref="K4:K33" si="2">1.96*(J4)/I4</f>
         <v>3.2031776466591973E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B5" s="8">
         <f>'Test 1'!$AQ5</f>
         <v>0.95255332649699997</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C5" s="28">
         <f>'Test 2'!$AO5</f>
         <v>1</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D5" s="13">
         <f>'Test 3'!$AQ5</f>
         <v>1</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E5" s="13">
         <f>'Test 4'!$AP5</f>
         <v>1</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F5" s="7">
         <f>'Test 5'!$AQ5</f>
         <v>1</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G5" s="13">
         <f t="shared" si="0"/>
         <v>0.99051066529940002</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H5" s="26">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J5" s="26">
         <f t="shared" si="1"/>
         <v>1.8978669401200007E-2</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="39">
         <f t="shared" si="2"/>
         <v>7.4396384052704033E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
         <v>3</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B6" s="8">
         <f>'Test 1'!$AQ6</f>
         <v>0.94971446252199998</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C6" s="28">
         <f>'Test 2'!$AO6</f>
         <v>0.99672258331899999</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D6" s="13">
         <f>'Test 3'!$AQ6</f>
         <v>1</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E6" s="13">
         <f>'Test 4'!$AP6</f>
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
         <f>'Test 5'!$AQ6</f>
         <v>1</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="13">
         <f t="shared" si="0"/>
         <v>0.98928740916820002</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="H6" s="26">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J6" s="26">
         <f t="shared" si="1"/>
         <v>1.9827146682790311E-2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K6" s="39">
         <f t="shared" si="2"/>
         <v>7.7722414996538019E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
         <v>4</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7" s="8">
         <f>'Test 1'!$AQ7</f>
         <v>0.94427566991199996</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C7" s="28">
         <f>'Test 2'!$AO7</f>
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D7" s="13">
         <f>'Test 3'!$AQ7</f>
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <f>'Test 4'!$AP7</f>
         <v>1</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <f>'Test 5'!$AQ7</f>
         <v>0.98981394222399999</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G7" s="13">
         <f t="shared" si="0"/>
         <v>0.98681792242720001</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J7" s="26">
         <f t="shared" si="1"/>
         <v>2.1633866464854646E-2</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="39">
         <f t="shared" si="2"/>
         <v>8.4804756542230207E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="30">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B8" s="8">
         <f>'Test 1'!$AQ8</f>
         <v>0.95878524824900002</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C8" s="28">
         <f>'Test 2'!$AO8</f>
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <f>'Test 3'!$AQ8</f>
         <v>1</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <f>'Test 4'!$AP8</f>
         <v>1</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <f>'Test 5'!$AQ8</f>
         <v>0.98029966729499995</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G8" s="13">
         <f t="shared" si="0"/>
         <v>0.98781698310879995</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="H8" s="26">
+        <v>1</v>
+      </c>
+      <c r="I8" s="13">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="J8" s="26">
         <f t="shared" si="1"/>
         <v>1.6398959526310972E-2</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="39">
         <f t="shared" si="2"/>
         <v>6.4283921343139009E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="30">
         <v>6</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B9" s="8">
         <f>'Test 1'!$AQ9</f>
         <v>0.97071890460200005</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C9" s="28">
         <f>'Test 2'!$AO9</f>
         <v>1</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D9" s="13">
         <f>'Test 3'!$AQ9</f>
         <v>1</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <f>'Test 4'!$AP9</f>
         <v>1.0148765555199999</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <f>'Test 5'!$AQ9</f>
         <v>1</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>0.99711909202439997</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="H9" s="26">
+        <v>1</v>
+      </c>
+      <c r="I9" s="13">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="J9" s="26">
         <f t="shared" si="1"/>
         <v>1.4402751806700233E-2</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K9" s="39">
         <f t="shared" si="2"/>
         <v>5.6458787082264913E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="30">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B10" s="8">
         <f>'Test 1'!$AQ10</f>
         <v>0.96430495037200004</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C10" s="28">
         <f>'Test 2'!$AO10</f>
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <f>'Test 3'!$AQ10</f>
         <v>1</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <f>'Test 4'!$AP10</f>
         <v>1</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <f>'Test 5'!$AQ10</f>
         <v>1</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G10" s="13">
         <f t="shared" si="0"/>
         <v>0.99286099007439998</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="H10" s="26">
+        <v>1</v>
+      </c>
+      <c r="I10" s="13">
         <v>5</v>
       </c>
-      <c r="J9">
+      <c r="J10" s="26">
         <f t="shared" si="1"/>
         <v>1.4278019851199985E-2</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K10" s="39">
         <f t="shared" si="2"/>
         <v>5.596983781670394E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="8">
         <f>'Test 1'!$AQ11</f>
         <v>0.971606210523</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C11" s="28">
         <f>'Test 2'!$AO11</f>
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D11" s="13">
         <f>'Test 3'!$AQ11</f>
         <v>0.98636541141400003</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <f>'Test 4'!$AP11</f>
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <f>'Test 5'!$AQ11</f>
         <v>1</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G11" s="13">
         <f t="shared" si="0"/>
         <v>0.99159432438740003</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13">
         <v>5</v>
       </c>
-      <c r="J10">
+      <c r="J11" s="26">
         <f t="shared" si="1"/>
         <v>1.1303383336438565E-2</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K11" s="39">
         <f t="shared" si="2"/>
         <v>4.4309262678839173E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="41">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B12" s="8">
         <f>'Test 1'!$AQ12</f>
         <v>0.97397235964600004</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C12" s="28">
         <f>'Test 2'!$AO12</f>
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <f>'Test 3'!$AQ12</f>
         <v>0.986733913809</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <f>'Test 4'!$AP12</f>
         <v>1</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <f>'Test 5'!$AQ12</f>
         <v>1</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G12" s="13">
         <f t="shared" si="0"/>
         <v>0.99214125469100001</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="H12" s="26">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13">
         <v>5</v>
       </c>
-      <c r="J11">
+      <c r="J12" s="26">
         <f t="shared" si="1"/>
         <v>1.0436740066376677E-2</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K12" s="39">
         <f t="shared" si="2"/>
         <v>4.091202106019657E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="41">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
         <v>10</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <f>'Test 1'!$AQ13</f>
         <v>0.99132411988199998</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C13" s="28">
         <f>'Test 2'!$AO13</f>
         <v>1</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <f>'Test 3'!$AQ13</f>
         <v>1</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <f>'Test 4'!$AP13</f>
         <v>1</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <f>'Test 5'!$AQ13</f>
         <v>1.02363795417</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G13" s="13">
         <f t="shared" si="0"/>
         <v>1.0029924148103999</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="H13" s="26">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13">
         <v>5</v>
       </c>
-      <c r="J12">
+      <c r="J13" s="26">
         <f t="shared" si="1"/>
         <v>1.0855883576912783E-2</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K13" s="39">
         <f t="shared" si="2"/>
         <v>4.2555063621498111E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="41">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="30">
         <v>11</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B14" s="8">
         <f>'Test 1'!$AQ14</f>
         <v>0.983561490303</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C14" s="28">
         <f>'Test 2'!$AO14</f>
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="13">
         <f>'Test 3'!$AQ14</f>
         <v>1</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <f>'Test 4'!$AP14</f>
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <f>'Test 5'!$AQ14</f>
         <v>1.0074069186500001</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G14" s="13">
         <f t="shared" si="0"/>
         <v>0.99819368179059997</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="13">
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J14" s="26">
         <f t="shared" si="1"/>
         <v>7.8584110044974433E-3</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K14" s="39">
         <f t="shared" si="2"/>
         <v>3.0804971137629979E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="30">
         <v>12</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B15" s="8">
         <f>'Test 1'!$AQ15</f>
         <v>0.983982990552</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C15" s="28">
         <f>'Test 2'!$AO15</f>
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D15" s="13">
         <f>'Test 3'!$AQ15</f>
         <v>1</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <f>'Test 4'!$AP15</f>
         <v>1</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <f>'Test 5'!$AQ15</f>
         <v>1.0144023418200001</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G15" s="13">
         <f t="shared" si="0"/>
         <v>0.99967706647440002</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
         <v>5</v>
       </c>
-      <c r="J14">
+      <c r="J15" s="26">
         <f t="shared" si="1"/>
         <v>9.6275709423266579E-3</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K15" s="39">
         <f t="shared" si="2"/>
         <v>3.7740078093920501E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="41">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
         <v>13</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <f>'Test 1'!$AQ16</f>
         <v>0.97597448582699997</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C16" s="28">
         <f>'Test 2'!$AO16</f>
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="13">
         <f>'Test 3'!$AQ16</f>
         <v>1</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="13">
         <f>'Test 4'!$AP16</f>
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <f>'Test 5'!$AQ16</f>
         <v>1</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G16" s="13">
         <f t="shared" si="0"/>
         <v>0.99519489716539999</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H16" s="26">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13">
         <v>5</v>
       </c>
-      <c r="J15">
+      <c r="J16" s="26">
         <f t="shared" si="1"/>
         <v>9.6102056692000115E-3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K16" s="39">
         <f t="shared" si="2"/>
         <v>3.7672006223264049E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="30">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="8">
         <f>'Test 1'!$AQ17</f>
         <v>0.983982990552</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C17" s="28">
         <f>'Test 2'!$AO17</f>
         <v>1</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <f>'Test 3'!$AQ17</f>
         <v>1</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E17" s="13">
         <f>'Test 4'!$AP17</f>
         <v>1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <f>'Test 5'!$AQ17</f>
         <v>1</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G17" s="13">
         <f t="shared" si="0"/>
         <v>0.99679659811040011</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="H17" s="26">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13">
         <v>5</v>
       </c>
-      <c r="J16">
+      <c r="J17" s="26">
         <f t="shared" si="1"/>
         <v>6.4068037791999988E-3</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K17" s="39">
         <f t="shared" si="2"/>
         <v>2.5114670814463994E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="41">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="30">
         <v>15</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B18" s="8">
         <f>'Test 1'!$AQ18</f>
         <v>0.97597448582699997</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C18" s="28">
         <f>'Test 2'!$AO18</f>
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="13">
         <f>'Test 3'!$AQ18</f>
         <v>1</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="13">
         <f>'Test 4'!$AP18</f>
         <v>1</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <f>'Test 5'!$AQ18</f>
         <v>1</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G18" s="13">
         <f t="shared" si="0"/>
         <v>0.99519489716539999</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="H18" s="26">
+        <v>1</v>
+      </c>
+      <c r="I18" s="13">
         <v>5</v>
       </c>
-      <c r="J17">
+      <c r="J18" s="26">
         <f t="shared" si="1"/>
         <v>9.6102056692000115E-3</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K18" s="39">
         <f t="shared" si="2"/>
         <v>3.7672006223264049E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="41">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="30">
         <v>16</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B19" s="8">
         <f>'Test 1'!$AQ19</f>
         <v>0.95315024736300002</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C19" s="28">
         <f>'Test 2'!$AO19</f>
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <f>'Test 3'!$AQ19</f>
         <v>1</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <f>'Test 4'!$AP19</f>
         <v>0.95736199917800002</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <f>'Test 5'!$AQ19</f>
         <v>1</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G19" s="13">
         <f t="shared" si="0"/>
         <v>0.98210244930820001</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="H19" s="26">
+        <v>1</v>
+      </c>
+      <c r="I19" s="13">
         <v>5</v>
       </c>
-      <c r="J18">
+      <c r="J19" s="26">
         <f t="shared" si="1"/>
         <v>2.1960358978929308E-2</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K19" s="39">
         <f t="shared" si="2"/>
         <v>8.60846071974029E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="41">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="30">
         <v>17</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B20" s="8">
         <f>'Test 1'!$AQ20</f>
         <v>0.94246521606</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C20" s="28">
         <f>'Test 2'!$AO20</f>
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="13">
         <f>'Test 3'!$AQ20</f>
         <v>1</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <f>'Test 4'!$AP20</f>
         <v>0.95736199917800002</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <f>'Test 5'!$AQ20</f>
         <v>1</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G20" s="13">
         <f t="shared" si="0"/>
         <v>0.97996544304760003</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="H20" s="26">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
         <v>5</v>
       </c>
-      <c r="J19">
+      <c r="J20" s="26">
         <f t="shared" si="1"/>
         <v>2.4985328157639066E-2</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K20" s="39">
         <f t="shared" si="2"/>
         <v>9.7942486377945136E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="41">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>18</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B21" s="8">
         <f>'Test 1'!$AQ21</f>
         <v>0.93167744407099995</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C21" s="28">
         <f>'Test 2'!$AO21</f>
         <v>1</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <f>'Test 3'!$AQ21</f>
         <v>1</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <f>'Test 4'!$AP21</f>
         <v>0.98191646797700005</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <f>'Test 5'!$AQ21</f>
         <v>1</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G21" s="13">
         <f t="shared" si="0"/>
         <v>0.98271878240960009</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="H21" s="26">
+        <v>1</v>
+      </c>
+      <c r="I21" s="13">
         <v>5</v>
       </c>
-      <c r="J20">
+      <c r="J21" s="26">
         <f t="shared" si="1"/>
         <v>2.6464252765058198E-2</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K21" s="39">
         <f t="shared" si="2"/>
         <v>1.0373987083902813E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="41">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="30">
         <v>19</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B22" s="8">
         <f>'Test 1'!$AQ22</f>
         <v>0.94394046693</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C22" s="28">
         <f>'Test 2'!$AO22</f>
         <v>1</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <f>'Test 3'!$AQ22</f>
         <v>1</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <f>'Test 4'!$AP22</f>
         <v>1</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <f>'Test 5'!$AQ22</f>
         <v>0.99691840269800003</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G22" s="13">
         <f t="shared" si="0"/>
         <v>0.98817177392560007</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H22" s="26">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13">
         <v>5</v>
       </c>
-      <c r="J21">
+      <c r="J22" s="26">
         <f t="shared" si="1"/>
         <v>2.2147834339377465E-2</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K22" s="39">
         <f t="shared" si="2"/>
         <v>8.6819510610359665E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="41">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="30">
         <v>20</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B23" s="8">
         <f>'Test 1'!$AQ23</f>
         <v>0.96712298060599999</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C23" s="28">
         <f>'Test 2'!$AO23</f>
         <v>1</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <f>'Test 3'!$AQ23</f>
         <v>1.0026361884799999</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <f>'Test 4'!$AP23</f>
         <v>1</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <f>'Test 5'!$AQ23</f>
         <v>0.99327651497799996</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G23" s="13">
         <f t="shared" si="0"/>
         <v>0.99260713681279999</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="H23" s="26">
+        <v>1</v>
+      </c>
+      <c r="I23" s="13">
         <v>5</v>
       </c>
-      <c r="J22">
+      <c r="J23" s="26">
         <f t="shared" si="1"/>
         <v>1.3113207191631717E-2</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K23" s="39">
         <f t="shared" si="2"/>
         <v>5.1403772191196328E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="41">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>21</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B24" s="8">
         <f>'Test 1'!$AQ24</f>
         <v>0.94246521606</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C24" s="28">
         <f>'Test 2'!$AO24</f>
         <v>1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="13">
         <f>'Test 3'!$AQ24</f>
         <v>0.979353970583</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <f>'Test 4'!$AP24</f>
         <v>1</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <f>'Test 5'!$AQ24</f>
         <v>0.99844101432400001</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G24" s="13">
         <f t="shared" si="0"/>
         <v>0.98405204019340009</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="H24" s="26">
+        <v>1</v>
+      </c>
+      <c r="I24" s="13">
         <v>5</v>
       </c>
-      <c r="J23">
+      <c r="J24" s="26">
         <f t="shared" si="1"/>
         <v>2.2213748986082648E-2</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K24" s="39">
         <f t="shared" si="2"/>
         <v>8.7077896025443986E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="41">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>22</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B25" s="8">
         <f>'Test 1'!$AQ25</f>
         <v>0.96952861617099995</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C25" s="28">
         <f>'Test 2'!$AO25</f>
         <v>1</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <f>'Test 3'!$AQ25</f>
         <v>0.97677321690600005</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <f>'Test 4'!$AP25</f>
         <v>1</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <f>'Test 5'!$AQ25</f>
         <v>0.99316696167399998</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G25" s="13">
         <f t="shared" si="0"/>
         <v>0.98789375895019993</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="H25" s="26">
+        <v>1</v>
+      </c>
+      <c r="I25" s="13">
         <v>5</v>
       </c>
-      <c r="J24">
+      <c r="J25" s="26">
         <f t="shared" si="1"/>
         <v>1.2504988895118935E-2</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K25" s="39">
         <f t="shared" si="2"/>
         <v>4.9019556468866228E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="41">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
         <v>23</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B26" s="8">
         <f>'Test 1'!$AQ26</f>
         <v>0.96095853946900001</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C26" s="28">
         <f>'Test 2'!$AO26</f>
         <v>1</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="13">
         <f>'Test 3'!$AQ26</f>
         <v>1.0031205170099999</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <f>'Test 4'!$AP26</f>
         <v>1</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <f>'Test 5'!$AQ26</f>
         <v>1.0033050541999999</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G26" s="13">
         <f t="shared" si="0"/>
         <v>0.99347682213580002</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
+      <c r="H26" s="26">
+        <v>1</v>
+      </c>
+      <c r="I26" s="13">
         <v>5</v>
       </c>
-      <c r="J25">
+      <c r="J26" s="26">
         <f t="shared" si="1"/>
         <v>1.6322606426844459E-2</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K26" s="39">
         <f t="shared" si="2"/>
         <v>6.3984617193230276E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="41">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
         <v>24</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B27" s="8">
         <f>'Test 1'!$AQ27</f>
         <v>0.95538118796500004</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C27" s="28">
         <f>'Test 2'!$AO27</f>
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D27" s="13">
         <f>'Test 3'!$AQ27</f>
         <v>1.0251645785700001</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <f>'Test 4'!$AP27</f>
         <v>1</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <f>'Test 5'!$AQ27</f>
         <v>0.99848686684400001</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G27" s="13">
         <f t="shared" si="0"/>
         <v>0.99580652667580005</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
+      <c r="H27" s="26">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
         <v>5</v>
       </c>
-      <c r="J26">
+      <c r="J27" s="26">
         <f t="shared" si="1"/>
         <v>2.2532012255296986E-2</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K27" s="39">
         <f t="shared" si="2"/>
         <v>8.8325488040764174E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="41">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
         <v>25</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <f>'Test 1'!$AQ28</f>
         <v>0.93059295905700001</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C28" s="28">
         <f>'Test 2'!$AO28</f>
         <v>1</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="13">
         <f>'Test 3'!$AQ28</f>
         <v>1.02086818711</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <f>'Test 4'!$AP28</f>
         <v>1</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <f>'Test 5'!$AQ28</f>
         <v>0.98917682898799997</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G28" s="13">
         <f t="shared" si="0"/>
         <v>0.98812759503100001</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
+      <c r="H28" s="26">
+        <v>1</v>
+      </c>
+      <c r="I28" s="13">
         <v>5</v>
       </c>
-      <c r="J27">
+      <c r="J28" s="26">
         <f t="shared" si="1"/>
         <v>3.054566940741868E-2</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K28" s="39">
         <f t="shared" si="2"/>
         <v>1.1973902407708122E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="41">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="30">
         <v>26</v>
       </c>
-      <c r="B28" s="8">
+      <c r="B29" s="8">
         <f>'Test 1'!$AQ29</f>
         <v>0.96430495037200004</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C29" s="28">
         <f>'Test 2'!$AO29</f>
         <v>1</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <f>'Test 3'!$AQ29</f>
         <v>1</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E29" s="13">
         <f>'Test 4'!$AP29</f>
         <v>1</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <f>'Test 5'!$AQ29</f>
         <v>0.98890624971300001</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G29" s="13">
         <f t="shared" si="0"/>
         <v>0.99064224001699996</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
+      <c r="H29" s="26">
+        <v>1</v>
+      </c>
+      <c r="I29" s="13">
         <v>5</v>
       </c>
-      <c r="J28">
+      <c r="J29" s="26">
         <f t="shared" si="1"/>
         <v>1.3851855499379949E-2</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K29" s="39">
         <f t="shared" si="2"/>
         <v>5.4299273557569397E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="41">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="30">
         <v>27</v>
       </c>
-      <c r="B29" s="8">
+      <c r="B30" s="8">
         <f>'Test 1'!$AQ30</f>
         <v>0.96430495037200004</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C30" s="28">
         <f>'Test 2'!$AO30</f>
         <v>1</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="13">
         <f>'Test 3'!$AQ30</f>
         <v>1</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="13">
         <f>'Test 4'!$AP30</f>
         <v>1</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <f>'Test 5'!$AQ30</f>
         <v>0.99100506733500004</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G30" s="13">
         <f t="shared" si="0"/>
         <v>0.99106200354140006</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="H30" s="26">
+        <v>1</v>
+      </c>
+      <c r="I30" s="13">
         <v>5</v>
       </c>
-      <c r="J29">
+      <c r="J30" s="26">
         <f t="shared" si="1"/>
         <v>1.3824662586287843E-2</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K30" s="39">
         <f t="shared" si="2"/>
         <v>5.4192677338248344E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="41">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="30">
         <v>28</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B31" s="8">
         <f>'Test 1'!$AQ31</f>
         <v>0.94684663567299998</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C31" s="28">
         <f>'Test 2'!$AO31</f>
         <v>1</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <f>'Test 3'!$AQ31</f>
         <v>0.98808717299000004</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <f>'Test 4'!$AP31</f>
         <v>1</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <f>'Test 5'!$AQ31</f>
         <v>0.98415178530400005</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G31" s="13">
         <f t="shared" si="0"/>
         <v>0.98381711879339995</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="H31" s="26">
+        <v>1</v>
+      </c>
+      <c r="I31" s="13">
         <v>5</v>
       </c>
-      <c r="J30">
+      <c r="J31" s="26">
         <f t="shared" si="1"/>
         <v>1.9539361683355249E-2</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K31" s="39">
         <f t="shared" si="2"/>
         <v>7.659429779875257E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="41">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="30">
         <v>29</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B32" s="8">
         <f>'Test 1'!$AQ32</f>
         <v>0.94794471929199997</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C32" s="28">
         <f>'Test 2'!$AO32</f>
         <v>1</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="13">
         <f>'Test 3'!$AQ32</f>
         <v>0.97337132785900005</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <f>'Test 4'!$AP32</f>
         <v>1.0210800820199999</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <f>'Test 5'!$AQ32</f>
         <v>0.97226562428200003</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G32" s="13">
         <f t="shared" si="0"/>
         <v>0.98293235069060003</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="H32" s="26">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13">
         <v>5</v>
       </c>
-      <c r="J31">
+      <c r="J32" s="26">
         <f t="shared" si="1"/>
         <v>2.5202700725419656E-2</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K32" s="39">
         <f t="shared" si="2"/>
         <v>9.879458684364505E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42">
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="31">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B33" s="11">
         <f>'Test 1'!$AQ33</f>
         <v>0.95662059940999999</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C33" s="29">
         <f>'Test 2'!$AO33</f>
         <v>1</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D33" s="14">
         <f>'Test 3'!$AQ33</f>
         <v>0.98628219920000004</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E33" s="14">
         <f>'Test 4'!$AP33</f>
         <v>1.04216016405</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F33" s="9">
         <f>'Test 5'!$AQ33</f>
         <v>0.96779233787600005</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <f t="shared" si="0"/>
         <v>0.99057106010719997</v>
       </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
+      <c r="H33" s="27">
+        <v>1</v>
+      </c>
+      <c r="I33" s="14">
         <v>5</v>
       </c>
-      <c r="J32">
+      <c r="J33" s="27">
         <f t="shared" si="1"/>
         <v>2.9800130365629784E-2</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K33" s="40">
         <f t="shared" si="2"/>
         <v>1.1681651103326874E-2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B32">
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B33">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -25024,7 +25117,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D32">
+  <conditionalFormatting sqref="D3:D33">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -25036,7 +25129,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E32">
+  <conditionalFormatting sqref="E3:E33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -25048,7 +25141,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F32">
+  <conditionalFormatting sqref="F3:F33">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -25060,7 +25153,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G32">
+  <conditionalFormatting sqref="G3:G33">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
